--- a/design/parts calculations.xlsx
+++ b/design/parts calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Part</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>8020 Joining plate 2rcx4</t>
-  </si>
-  <si>
     <t>tnuts</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>8020 carry handle 1xkc5</t>
   </si>
   <si>
-    <t>panel retainer 5jb82</t>
-  </si>
-  <si>
     <t>Grainger hinge for ramp 16u354</t>
   </si>
   <si>
@@ -91,6 +85,9 @@
   </si>
   <si>
     <t>Mcmaster wheels  29635T31</t>
+  </si>
+  <si>
+    <t>inside corner connector</t>
   </si>
 </sst>
 </file>
@@ -432,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +472,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -490,20 +487,20 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <f>C2*D2*E2</f>
-        <v>517.08000000000004</v>
+        <f>0</f>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUM(F:F)</f>
-        <v>1547.7494453701408</v>
+        <v>612.34944537014087</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -525,7 +522,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -544,12 +541,12 @@
         <v>29.08</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -558,22 +555,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>12.62</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>C5*D5*E5</f>
-        <v>201.92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -582,20 +579,20 @@
         <v>1.06</v>
       </c>
       <c r="E6">
-        <f>E5*5+E3*3+E9*2+E10*4</f>
-        <v>170</v>
+        <f>E3*3+E9*2+10</f>
+        <v>20</v>
       </c>
       <c r="F6">
         <f>C6*D6*E6</f>
-        <v>180.20000000000002</v>
+        <v>21.200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.9</v>
@@ -608,19 +605,19 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F29" si="0">C7*D7*E7</f>
+        <f t="shared" ref="F7:F28" si="0">C7*D7*E7</f>
         <v>172.91338582677164</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -637,12 +634,12 @@
         <v>73.196850393700785</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -663,99 +660,83 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <f>0.38*0.88</f>
+        <v>0.33440000000000003</v>
       </c>
       <c r="D10">
-        <v>9.8699999999999992</v>
+        <f>127.5/(48*96*(0.0254^2))</f>
+        <v>42.887455566577806</v>
       </c>
       <c r="E10">
-        <f>4*5</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>197.39999999999998</v>
+        <v>57.366260565854482</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <f>0.38*0.88</f>
-        <v>0.33440000000000003</v>
+        <f>0.38*0.38</f>
+        <v>0.1444</v>
       </c>
       <c r="D11">
-        <f>127.5/(48*96*(0.0254^2))</f>
+        <f>D10</f>
         <v>42.887455566577806</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>57.366260565854482</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
+        <v>6.192948583813835</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <f>0.38*0.38</f>
-        <v>0.1444</v>
-      </c>
-      <c r="D12">
-        <f>D11</f>
-        <v>42.887455566577806</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15.11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>6.192948583813835</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>15.11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>30.22</v>
+        <f>C13*D13*E12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14">
-        <f>C14*D14*E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -839,12 +820,6 @@
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/design/parts calculations.xlsx
+++ b/design/parts calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="8595" windowHeight="3405"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="8595" windowHeight="3405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Part</t>
   </si>
@@ -69,9 +69,6 @@
     <t>square meter</t>
   </si>
   <si>
-    <t>Panel large 1zat4</t>
-  </si>
-  <si>
     <t>panel small 1zat4</t>
   </si>
   <si>
@@ -88,6 +85,153 @@
   </si>
   <si>
     <t>inside corner connector</t>
+  </si>
+  <si>
+    <t>Panel sides 1zat4</t>
+  </si>
+  <si>
+    <t>Panel top/bottom 1zat4</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>cost per square inch</t>
+  </si>
+  <si>
+    <t>nylon</t>
+  </si>
+  <si>
+    <t>hdpe</t>
+  </si>
+  <si>
+    <t>PVC 1</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Grainger</t>
+  </si>
+  <si>
+    <t>1ZAT3</t>
+  </si>
+  <si>
+    <t>1/8*48*96</t>
+  </si>
+  <si>
+    <t>Total remaining</t>
+  </si>
+  <si>
+    <t>HDPE for panels</t>
+  </si>
+  <si>
+    <t>Angle stock, motor mounts</t>
+  </si>
+  <si>
+    <t>2EYV1</t>
+  </si>
+  <si>
+    <t>1/4in*3in*4ft</t>
+  </si>
+  <si>
+    <t>522-1013-ND</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Spare battery</t>
+  </si>
+  <si>
+    <t>BP1212</t>
+  </si>
+  <si>
+    <t>49A763</t>
+  </si>
+  <si>
+    <t>E-stop</t>
+  </si>
+  <si>
+    <t>40mm</t>
+  </si>
+  <si>
+    <t>Polulu</t>
+  </si>
+  <si>
+    <t>10"stroke</t>
+  </si>
+  <si>
+    <t>Smaller motor driver</t>
+  </si>
+  <si>
+    <t>Linear actuator</t>
+  </si>
+  <si>
+    <t>5-24V,12Acont.</t>
+  </si>
+  <si>
+    <t>Gear motor with encoder - folders</t>
+  </si>
+  <si>
+    <t>19:1, 500rpm</t>
+  </si>
+  <si>
+    <t>motor mounting bracket</t>
+  </si>
+  <si>
+    <t>fits 37D</t>
+  </si>
+  <si>
+    <t>linear actuator mounting bracket</t>
+  </si>
+  <si>
+    <t>Concentric line linear actuators (ours)</t>
+  </si>
+  <si>
+    <t>Zigbee</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>888-XB24-Z7UIT-004</t>
+  </si>
+  <si>
+    <t>133-400ft</t>
+  </si>
+  <si>
+    <t>16U365</t>
+  </si>
+  <si>
+    <t>Panel Retainer</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>5V regulator</t>
+  </si>
+  <si>
+    <t>LM2679T-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>5v</t>
   </si>
 </sst>
 </file>
@@ -123,10 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +619,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -487,15 +634,15 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <f>0</f>
-        <v>0</v>
+        <f>C2*D2*E2</f>
+        <v>517.08000000000004</v>
       </c>
       <c r="G2">
         <f>SUM(F:F)</f>
-        <v>612.34944537014087</v>
+        <v>1141.5494403132559</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -541,12 +688,12 @@
         <v>29.08</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -609,7 +756,7 @@
         <v>172.91338582677164</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,7 +781,7 @@
         <v>73.196850393700785</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,78 +807,95 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <f>0.38*0.88</f>
-        <v>0.33440000000000003</v>
+        <f>0.47*0.81</f>
+        <v>0.38069999999999998</v>
       </c>
       <c r="D10">
         <f>127.5/(48*96*(0.0254^2))</f>
         <v>42.887455566577806</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>57.366260565854482</v>
+        <v>32.654508668392339</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11">
-        <f>0.38*0.38</f>
-        <v>0.1444</v>
+        <f>0.48*0.81</f>
+        <v>0.38880000000000003</v>
       </c>
       <c r="D11">
+        <f>127.5/(48*96*(0.0254^2))</f>
+        <v>42.887455566577806</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>33.349285448570903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f>0.48*0.47</f>
+        <v>0.22559999999999997</v>
+      </c>
+      <c r="D12">
         <f>D10</f>
         <v>42.887455566577806</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6.192948583813835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.6754099758199512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>15.11</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>30.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13">
-        <f>C13*D13*E12</f>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,24 +995,382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>75.25</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUMPRODUCT(E:E,F:F)</f>
+        <v>665.5200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>43.6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>43.07</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>33.15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>109.95</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1451</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>24.95</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>1442</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>1995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>7.95</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>2314</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>12.95</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>7.07</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>5.67</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <f>62.3/(48*24)</f>
+        <v>5.4079861111111106E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <f>83.5/(48*24)</f>
+        <v>7.2482638888888895E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C5">
+        <f>46.35/(48*96)</f>
+        <v>1.0058593750000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
+        <f>77.1/(48*96)</f>
+        <v>1.6731770833333333E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.188</v>
+      </c>
+      <c r="C7">
+        <f>118.2/(48*96)</f>
+        <v>2.5651041666666666E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
+        <f>143/(48*96)</f>
+        <v>3.1032986111111112E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/design/parts calculations.xlsx
+++ b/design/parts calculations.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="8595" windowHeight="3405" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="8595" windowHeight="3405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>Part</t>
   </si>
@@ -204,9 +205,6 @@
     <t>Concentric line linear actuators (ours)</t>
   </si>
   <si>
-    <t>Zigbee</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -232,14 +230,103 @@
   </si>
   <si>
     <t>5v</t>
+  </si>
+  <si>
+    <t>Rotary encoder</t>
+  </si>
+  <si>
+    <t>sparkfun</t>
+  </si>
+  <si>
+    <t>COM-10790</t>
+  </si>
+  <si>
+    <t>200 P/R, incremental</t>
+  </si>
+  <si>
+    <t>Flexible couplings</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/4mmx10mm-Flexible-Coupling-Coupler-connect/dp/B00ANGJT58/ref=sr_1_182?s=hi&amp;ie=UTF8&amp;qid=1394059061&amp;sr=1-182</t>
+  </si>
+  <si>
+    <t>4mm,10mm</t>
+  </si>
+  <si>
+    <t>newegg</t>
+  </si>
+  <si>
+    <t>Wireless router</t>
+  </si>
+  <si>
+    <t>N82E16833181165</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Other parts</t>
+  </si>
+  <si>
+    <t>Battery mounts</t>
+  </si>
+  <si>
+    <t>standoffs</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>rubber or something for folders</t>
+  </si>
+  <si>
+    <t>folder material</t>
+  </si>
+  <si>
+    <t>carry handles?</t>
+  </si>
+  <si>
+    <t>Battery charger?</t>
+  </si>
+  <si>
+    <t>Battery clips</t>
+  </si>
+  <si>
+    <t>Materials for rake</t>
+  </si>
+  <si>
+    <t>materials for scoop</t>
+  </si>
+  <si>
+    <t>Motors with encoders for sensors</t>
+  </si>
+  <si>
+    <t>xbee</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good to buy </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -275,6 +362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,6 +667,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>75.25</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUMPRODUCT(E:E,F:F)</f>
+        <v>1047.3900000000001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>43.6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>43.07</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>33.15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>2311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>109.95</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1451</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>24.95</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>1442</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>1995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>7.95</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>2314</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>12.95</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>7.07</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>5.67</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>29.95</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <v>15.99</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>25.99</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>90</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -993,300 +1586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2">
-        <v>75.25</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>SUMPRODUCT(E:E,F:F)</f>
-        <v>665.5200000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <v>43.6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>43.07</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>33.15</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>2311</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>109.95</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>1451</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7">
-        <v>24.95</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>1442</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>1995</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9">
-        <v>7.95</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>2314</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10">
-        <v>12.95</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12">
-        <v>7.07</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13">
-        <v>5.67</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
